--- a/chart.xlsx
+++ b/chart.xlsx
@@ -1155,52 +1155,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>219</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>48</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>224</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>252</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>88</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>110</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>141</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1461,52 +1461,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>232</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>117</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>158</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>221</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>141</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>147</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>185</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>138</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>151</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>149</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1767,52 +1767,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>253</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>208</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>26</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>145</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>203</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>143</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>85</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>232</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2073,52 +2073,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>220</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>234</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>146</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>132</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2379,52 +2379,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>232</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>193</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>220</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>39</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>89</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>90</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2685,52 +2685,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>233</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>231</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>132</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>236</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>189</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>231</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>234</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>228</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>54</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>166</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>250</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2991,52 +2991,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>169</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>249</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>168</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>156</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>103</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>160</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>153</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>108</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>198</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3297,52 +3297,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>192</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>178</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>186</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>197</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>242</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>192</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>145</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>165</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>196</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>241</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>180</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3909,52 +3909,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>151</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>186</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4215,52 +4215,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>124</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>237</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>246</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>233</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>157</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>88</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>223</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>134</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>196</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4521,52 +4521,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>182</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>201</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>232</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>237</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>153</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6051,52 +6051,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>192</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>244</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>225</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>221</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>168</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>118</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>162</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>182</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8686,7 +8686,7 @@
         <v>2</v>
       </c>
       <c r="B122">
-        <v>192</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -8694,7 +8694,7 @@
         <v>3</v>
       </c>
       <c r="B123">
-        <v>244</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -8702,7 +8702,7 @@
         <v>4</v>
       </c>
       <c r="B124">
-        <v>135</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -8710,7 +8710,7 @@
         <v>5</v>
       </c>
       <c r="B125">
-        <v>250</v>
+        <v>72</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -8718,7 +8718,7 @@
         <v>6</v>
       </c>
       <c r="B126">
-        <v>145</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -8726,7 +8726,7 @@
         <v>7</v>
       </c>
       <c r="B127">
-        <v>130</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -8734,7 +8734,7 @@
         <v>8</v>
       </c>
       <c r="B128">
-        <v>162</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -8742,7 +8742,7 @@
         <v>9</v>
       </c>
       <c r="B129">
-        <v>134</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -8750,7 +8750,7 @@
         <v>10</v>
       </c>
       <c r="B130">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -8758,7 +8758,7 @@
         <v>11</v>
       </c>
       <c r="B131">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -8766,7 +8766,7 @@
         <v>12</v>
       </c>
       <c r="B132">
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -8774,7 +8774,7 @@
         <v>13</v>
       </c>
       <c r="B133">
-        <v>221</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -8782,7 +8782,7 @@
         <v>14</v>
       </c>
       <c r="B134">
-        <v>168</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -8790,7 +8790,7 @@
         <v>15</v>
       </c>
       <c r="B135">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -8798,7 +8798,7 @@
         <v>16</v>
       </c>
       <c r="B136">
-        <v>162</v>
+        <v>118</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -8806,7 +8806,7 @@
         <v>17</v>
       </c>
       <c r="B137">
-        <v>182</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -9366,7 +9366,7 @@
         <v>2</v>
       </c>
       <c r="B222">
-        <v>74</v>
+        <v>135</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -9374,7 +9374,7 @@
         <v>3</v>
       </c>
       <c r="B223">
-        <v>39</v>
+        <v>212</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -9382,7 +9382,7 @@
         <v>4</v>
       </c>
       <c r="B224">
-        <v>153</v>
+        <v>209</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -9390,7 +9390,7 @@
         <v>5</v>
       </c>
       <c r="B225">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -9398,7 +9398,7 @@
         <v>6</v>
       </c>
       <c r="B226">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -9406,7 +9406,7 @@
         <v>7</v>
       </c>
       <c r="B227">
-        <v>122</v>
+        <v>174</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -9414,7 +9414,7 @@
         <v>8</v>
       </c>
       <c r="B228">
-        <v>219</v>
+        <v>39</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -9422,7 +9422,7 @@
         <v>9</v>
       </c>
       <c r="B229">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -9430,7 +9430,7 @@
         <v>10</v>
       </c>
       <c r="B230">
-        <v>224</v>
+        <v>37</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -9438,7 +9438,7 @@
         <v>11</v>
       </c>
       <c r="B231">
-        <v>252</v>
+        <v>145</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -9446,7 +9446,7 @@
         <v>12</v>
       </c>
       <c r="B232">
-        <v>88</v>
+        <v>209</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -9454,7 +9454,7 @@
         <v>13</v>
       </c>
       <c r="B233">
-        <v>93</v>
+        <v>206</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -9462,7 +9462,7 @@
         <v>14</v>
       </c>
       <c r="B234">
-        <v>60</v>
+        <v>174</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -9470,7 +9470,7 @@
         <v>15</v>
       </c>
       <c r="B235">
-        <v>110</v>
+        <v>248</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -9478,7 +9478,7 @@
         <v>16</v>
       </c>
       <c r="B236">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -9486,7 +9486,7 @@
         <v>17</v>
       </c>
       <c r="B237">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -9502,7 +9502,7 @@
         <v>2</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>130</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -9510,7 +9510,7 @@
         <v>3</v>
       </c>
       <c r="B243">
-        <v>95</v>
+        <v>245</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -9518,7 +9518,7 @@
         <v>4</v>
       </c>
       <c r="B244">
-        <v>48</v>
+        <v>206</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -9526,7 +9526,7 @@
         <v>5</v>
       </c>
       <c r="B245">
-        <v>232</v>
+        <v>88</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -9534,7 +9534,7 @@
         <v>6</v>
       </c>
       <c r="B246">
-        <v>117</v>
+        <v>152</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -9542,7 +9542,7 @@
         <v>7</v>
       </c>
       <c r="B247">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -9550,7 +9550,7 @@
         <v>8</v>
       </c>
       <c r="B248">
-        <v>158</v>
+        <v>74</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -9558,7 +9558,7 @@
         <v>9</v>
       </c>
       <c r="B249">
-        <v>221</v>
+        <v>103</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -9566,7 +9566,7 @@
         <v>10</v>
       </c>
       <c r="B250">
-        <v>141</v>
+        <v>87</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -9574,7 +9574,7 @@
         <v>11</v>
       </c>
       <c r="B251">
-        <v>147</v>
+        <v>80</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -9582,7 +9582,7 @@
         <v>12</v>
       </c>
       <c r="B252">
-        <v>185</v>
+        <v>63</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -9590,7 +9590,7 @@
         <v>13</v>
       </c>
       <c r="B253">
-        <v>138</v>
+        <v>227</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -9598,7 +9598,7 @@
         <v>14</v>
       </c>
       <c r="B254">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -9606,7 +9606,7 @@
         <v>15</v>
       </c>
       <c r="B255">
-        <v>151</v>
+        <v>123</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -9614,7 +9614,7 @@
         <v>16</v>
       </c>
       <c r="B256">
-        <v>149</v>
+        <v>182</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -9622,7 +9622,7 @@
         <v>17</v>
       </c>
       <c r="B257">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -9638,7 +9638,7 @@
         <v>2</v>
       </c>
       <c r="B262">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -9646,7 +9646,7 @@
         <v>3</v>
       </c>
       <c r="B263">
-        <v>253</v>
+        <v>113</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -9654,7 +9654,7 @@
         <v>4</v>
       </c>
       <c r="B264">
-        <v>146</v>
+        <v>177</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -9662,7 +9662,7 @@
         <v>5</v>
       </c>
       <c r="B265">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -9670,7 +9670,7 @@
         <v>6</v>
       </c>
       <c r="B266">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -9678,7 +9678,7 @@
         <v>7</v>
       </c>
       <c r="B267">
-        <v>94</v>
+        <v>185</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -9686,7 +9686,7 @@
         <v>8</v>
       </c>
       <c r="B268">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -9694,7 +9694,7 @@
         <v>9</v>
       </c>
       <c r="B269">
-        <v>51</v>
+        <v>154</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -9702,7 +9702,7 @@
         <v>10</v>
       </c>
       <c r="B270">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -9710,7 +9710,7 @@
         <v>11</v>
       </c>
       <c r="B271">
-        <v>145</v>
+        <v>103</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -9718,7 +9718,7 @@
         <v>12</v>
       </c>
       <c r="B272">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -9726,7 +9726,7 @@
         <v>13</v>
       </c>
       <c r="B273">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -9734,7 +9734,7 @@
         <v>14</v>
       </c>
       <c r="B274">
-        <v>143</v>
+        <v>168</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -9742,7 +9742,7 @@
         <v>15</v>
       </c>
       <c r="B275">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -9750,7 +9750,7 @@
         <v>16</v>
       </c>
       <c r="B276">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -9758,7 +9758,7 @@
         <v>17</v>
       </c>
       <c r="B277">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -9774,7 +9774,7 @@
         <v>2</v>
       </c>
       <c r="B282">
-        <v>220</v>
+        <v>143</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -9782,7 +9782,7 @@
         <v>3</v>
       </c>
       <c r="B283">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -9790,7 +9790,7 @@
         <v>4</v>
       </c>
       <c r="B284">
-        <v>119</v>
+        <v>89</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -9798,7 +9798,7 @@
         <v>5</v>
       </c>
       <c r="B285">
-        <v>56</v>
+        <v>182</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -9806,7 +9806,7 @@
         <v>6</v>
       </c>
       <c r="B286">
-        <v>255</v>
+        <v>121</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -9814,7 +9814,7 @@
         <v>7</v>
       </c>
       <c r="B287">
-        <v>161</v>
+        <v>109</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -9822,7 +9822,7 @@
         <v>8</v>
       </c>
       <c r="B288">
-        <v>233</v>
+        <v>19</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -9830,7 +9830,7 @@
         <v>9</v>
       </c>
       <c r="B289">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -9838,7 +9838,7 @@
         <v>10</v>
       </c>
       <c r="B290">
-        <v>228</v>
+        <v>188</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -9846,7 +9846,7 @@
         <v>11</v>
       </c>
       <c r="B291">
-        <v>171</v>
+        <v>200</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -9854,7 +9854,7 @@
         <v>12</v>
       </c>
       <c r="B292">
-        <v>79</v>
+        <v>196</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -9862,7 +9862,7 @@
         <v>13</v>
       </c>
       <c r="B293">
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -9870,7 +9870,7 @@
         <v>14</v>
       </c>
       <c r="B294">
-        <v>236</v>
+        <v>60</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -9878,7 +9878,7 @@
         <v>15</v>
       </c>
       <c r="B295">
-        <v>234</v>
+        <v>119</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -9886,7 +9886,7 @@
         <v>16</v>
       </c>
       <c r="B296">
-        <v>146</v>
+        <v>21</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -9894,7 +9894,7 @@
         <v>17</v>
       </c>
       <c r="B297">
-        <v>132</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -9910,7 +9910,7 @@
         <v>2</v>
       </c>
       <c r="B302">
-        <v>200</v>
+        <v>116</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -9918,7 +9918,7 @@
         <v>3</v>
       </c>
       <c r="B303">
-        <v>47</v>
+        <v>208</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -9926,7 +9926,7 @@
         <v>4</v>
       </c>
       <c r="B304">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -9934,7 +9934,7 @@
         <v>5</v>
       </c>
       <c r="B305">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -9942,7 +9942,7 @@
         <v>6</v>
       </c>
       <c r="B306">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -9950,7 +9950,7 @@
         <v>7</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -9958,7 +9958,7 @@
         <v>8</v>
       </c>
       <c r="B308">
-        <v>79</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -9966,7 +9966,7 @@
         <v>9</v>
       </c>
       <c r="B309">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -9974,7 +9974,7 @@
         <v>10</v>
       </c>
       <c r="B310">
-        <v>25</v>
+        <v>225</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -9982,7 +9982,7 @@
         <v>11</v>
       </c>
       <c r="B311">
-        <v>220</v>
+        <v>139</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -9990,7 +9990,7 @@
         <v>12</v>
       </c>
       <c r="B312">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -9998,7 +9998,7 @@
         <v>13</v>
       </c>
       <c r="B313">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -10006,7 +10006,7 @@
         <v>14</v>
       </c>
       <c r="B314">
-        <v>135</v>
+        <v>199</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -10014,7 +10014,7 @@
         <v>15</v>
       </c>
       <c r="B315">
-        <v>39</v>
+        <v>220</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -10022,7 +10022,7 @@
         <v>16</v>
       </c>
       <c r="B316">
-        <v>89</v>
+        <v>161</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -10030,7 +10030,7 @@
         <v>17</v>
       </c>
       <c r="B317">
-        <v>90</v>
+        <v>179</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -10046,7 +10046,7 @@
         <v>2</v>
       </c>
       <c r="B322">
-        <v>233</v>
+        <v>161</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -10054,7 +10054,7 @@
         <v>3</v>
       </c>
       <c r="B323">
-        <v>231</v>
+        <v>52</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -10062,7 +10062,7 @@
         <v>4</v>
       </c>
       <c r="B324">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -10070,7 +10070,7 @@
         <v>5</v>
       </c>
       <c r="B325">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -10078,7 +10078,7 @@
         <v>6</v>
       </c>
       <c r="B326">
-        <v>236</v>
+        <v>41</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -10086,7 +10086,7 @@
         <v>7</v>
       </c>
       <c r="B327">
-        <v>189</v>
+        <v>140</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -10094,7 +10094,7 @@
         <v>8</v>
       </c>
       <c r="B328">
-        <v>231</v>
+        <v>16</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -10102,7 +10102,7 @@
         <v>9</v>
       </c>
       <c r="B329">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -10110,7 +10110,7 @@
         <v>10</v>
       </c>
       <c r="B330">
-        <v>22</v>
+        <v>230</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -10118,7 +10118,7 @@
         <v>11</v>
       </c>
       <c r="B331">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -10126,7 +10126,7 @@
         <v>12</v>
       </c>
       <c r="B332">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -10134,7 +10134,7 @@
         <v>13</v>
       </c>
       <c r="B333">
-        <v>79</v>
+        <v>13</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -10142,7 +10142,7 @@
         <v>14</v>
       </c>
       <c r="B334">
-        <v>78</v>
+        <v>131</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -10150,7 +10150,7 @@
         <v>15</v>
       </c>
       <c r="B335">
-        <v>54</v>
+        <v>123</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -10158,7 +10158,7 @@
         <v>16</v>
       </c>
       <c r="B336">
-        <v>166</v>
+        <v>136</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -10166,7 +10166,7 @@
         <v>17</v>
       </c>
       <c r="B337">
-        <v>250</v>
+        <v>218</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -10182,7 +10182,7 @@
         <v>2</v>
       </c>
       <c r="B342">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -10190,7 +10190,7 @@
         <v>3</v>
       </c>
       <c r="B343">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -10198,7 +10198,7 @@
         <v>4</v>
       </c>
       <c r="B344">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -10206,7 +10206,7 @@
         <v>5</v>
       </c>
       <c r="B345">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -10214,7 +10214,7 @@
         <v>6</v>
       </c>
       <c r="B346">
-        <v>150</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -10222,7 +10222,7 @@
         <v>7</v>
       </c>
       <c r="B347">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -10230,7 +10230,7 @@
         <v>8</v>
       </c>
       <c r="B348">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -10238,7 +10238,7 @@
         <v>9</v>
       </c>
       <c r="B349">
-        <v>168</v>
+        <v>210</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -10246,7 +10246,7 @@
         <v>10</v>
       </c>
       <c r="B350">
-        <v>156</v>
+        <v>247</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -10254,7 +10254,7 @@
         <v>11</v>
       </c>
       <c r="B351">
-        <v>26</v>
+        <v>232</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -10262,7 +10262,7 @@
         <v>12</v>
       </c>
       <c r="B352">
-        <v>103</v>
+        <v>174</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -10270,7 +10270,7 @@
         <v>13</v>
       </c>
       <c r="B353">
-        <v>160</v>
+        <v>15</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -10278,7 +10278,7 @@
         <v>14</v>
       </c>
       <c r="B354">
-        <v>153</v>
+        <v>48</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -10286,7 +10286,7 @@
         <v>15</v>
       </c>
       <c r="B355">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -10294,7 +10294,7 @@
         <v>16</v>
       </c>
       <c r="B356">
-        <v>11</v>
+        <v>152</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -10302,7 +10302,7 @@
         <v>17</v>
       </c>
       <c r="B357">
-        <v>198</v>
+        <v>70</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -10318,7 +10318,7 @@
         <v>2</v>
       </c>
       <c r="B362">
-        <v>77</v>
+        <v>227</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -10326,7 +10326,7 @@
         <v>3</v>
       </c>
       <c r="B363">
-        <v>192</v>
+        <v>89</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -10334,7 +10334,7 @@
         <v>4</v>
       </c>
       <c r="B364">
-        <v>178</v>
+        <v>242</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -10342,7 +10342,7 @@
         <v>5</v>
       </c>
       <c r="B365">
-        <v>186</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -10350,7 +10350,7 @@
         <v>6</v>
       </c>
       <c r="B366">
-        <v>197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -10358,7 +10358,7 @@
         <v>7</v>
       </c>
       <c r="B367">
-        <v>242</v>
+        <v>18</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -10366,7 +10366,7 @@
         <v>8</v>
       </c>
       <c r="B368">
-        <v>5</v>
+        <v>132</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -10374,7 +10374,7 @@
         <v>9</v>
       </c>
       <c r="B369">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -10382,7 +10382,7 @@
         <v>10</v>
       </c>
       <c r="B370">
-        <v>192</v>
+        <v>124</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -10390,7 +10390,7 @@
         <v>11</v>
       </c>
       <c r="B371">
-        <v>145</v>
+        <v>102</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -10398,7 +10398,7 @@
         <v>12</v>
       </c>
       <c r="B372">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -10406,7 +10406,7 @@
         <v>13</v>
       </c>
       <c r="B373">
-        <v>97</v>
+        <v>239</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -10414,7 +10414,7 @@
         <v>14</v>
       </c>
       <c r="B374">
-        <v>165</v>
+        <v>105</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -10422,7 +10422,7 @@
         <v>15</v>
       </c>
       <c r="B375">
-        <v>196</v>
+        <v>107</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -10430,7 +10430,7 @@
         <v>16</v>
       </c>
       <c r="B376">
-        <v>241</v>
+        <v>187</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -10438,7 +10438,7 @@
         <v>17</v>
       </c>
       <c r="B377">
-        <v>180</v>
+        <v>38</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -10454,7 +10454,7 @@
         <v>2</v>
       </c>
       <c r="B382">
-        <v>151</v>
+        <v>20</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -10462,7 +10462,7 @@
         <v>3</v>
       </c>
       <c r="B383">
-        <v>132</v>
+        <v>29</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -10470,7 +10470,7 @@
         <v>4</v>
       </c>
       <c r="B384">
-        <v>186</v>
+        <v>139</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -10478,7 +10478,7 @@
         <v>5</v>
       </c>
       <c r="B385">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -10486,7 +10486,7 @@
         <v>6</v>
       </c>
       <c r="B386">
-        <v>37</v>
+        <v>168</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -10494,7 +10494,7 @@
         <v>7</v>
       </c>
       <c r="B387">
-        <v>87</v>
+        <v>186</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -10502,7 +10502,7 @@
         <v>8</v>
       </c>
       <c r="B388">
-        <v>154</v>
+        <v>216</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -10510,7 +10510,7 @@
         <v>9</v>
       </c>
       <c r="B389">
-        <v>240</v>
+        <v>217</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -10518,7 +10518,7 @@
         <v>10</v>
       </c>
       <c r="B390">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -10526,7 +10526,7 @@
         <v>11</v>
       </c>
       <c r="B391">
-        <v>224</v>
+        <v>69</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -10534,7 +10534,7 @@
         <v>12</v>
       </c>
       <c r="B392">
-        <v>250</v>
+        <v>207</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -10542,7 +10542,7 @@
         <v>13</v>
       </c>
       <c r="B393">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -10550,7 +10550,7 @@
         <v>14</v>
       </c>
       <c r="B394">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -10558,7 +10558,7 @@
         <v>15</v>
       </c>
       <c r="B395">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -10566,7 +10566,7 @@
         <v>16</v>
       </c>
       <c r="B396">
-        <v>188</v>
+        <v>246</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -10574,7 +10574,7 @@
         <v>17</v>
       </c>
       <c r="B397">
-        <v>173</v>
+        <v>37</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -10590,7 +10590,7 @@
         <v>2</v>
       </c>
       <c r="B402">
-        <v>124</v>
+        <v>248</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -10598,7 +10598,7 @@
         <v>3</v>
       </c>
       <c r="B403">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -10606,7 +10606,7 @@
         <v>4</v>
       </c>
       <c r="B404">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -10614,7 +10614,7 @@
         <v>5</v>
       </c>
       <c r="B405">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -10622,7 +10622,7 @@
         <v>6</v>
       </c>
       <c r="B406">
-        <v>246</v>
+        <v>160</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -10630,7 +10630,7 @@
         <v>7</v>
       </c>
       <c r="B407">
-        <v>10</v>
+        <v>126</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -10638,7 +10638,7 @@
         <v>8</v>
       </c>
       <c r="B408">
-        <v>52</v>
+        <v>145</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -10646,7 +10646,7 @@
         <v>9</v>
       </c>
       <c r="B409">
-        <v>233</v>
+        <v>161</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -10654,7 +10654,7 @@
         <v>10</v>
       </c>
       <c r="B410">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -10662,7 +10662,7 @@
         <v>11</v>
       </c>
       <c r="B411">
-        <v>88</v>
+        <v>219</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -10670,7 +10670,7 @@
         <v>12</v>
       </c>
       <c r="B412">
-        <v>56</v>
+        <v>167</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -10678,7 +10678,7 @@
         <v>13</v>
       </c>
       <c r="B413">
-        <v>27</v>
+        <v>186</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -10686,7 +10686,7 @@
         <v>14</v>
       </c>
       <c r="B414">
-        <v>223</v>
+        <v>54</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -10694,7 +10694,7 @@
         <v>15</v>
       </c>
       <c r="B415">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -10702,7 +10702,7 @@
         <v>16</v>
       </c>
       <c r="B416">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -10710,7 +10710,7 @@
         <v>17</v>
       </c>
       <c r="B417">
-        <v>196</v>
+        <v>159</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="B422">
-        <v>182</v>
+        <v>36</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -10734,7 +10734,7 @@
         <v>3</v>
       </c>
       <c r="B423">
-        <v>102</v>
+        <v>224</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -10742,7 +10742,7 @@
         <v>4</v>
       </c>
       <c r="B424">
-        <v>24</v>
+        <v>221</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -10750,7 +10750,7 @@
         <v>5</v>
       </c>
       <c r="B425">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -10758,7 +10758,7 @@
         <v>6</v>
       </c>
       <c r="B426">
-        <v>59</v>
+        <v>106</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -10766,7 +10766,7 @@
         <v>7</v>
       </c>
       <c r="B427">
-        <v>127</v>
+        <v>29</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -10774,7 +10774,7 @@
         <v>8</v>
       </c>
       <c r="B428">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -10782,7 +10782,7 @@
         <v>9</v>
       </c>
       <c r="B429">
-        <v>84</v>
+        <v>122</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -10790,7 +10790,7 @@
         <v>10</v>
       </c>
       <c r="B430">
-        <v>232</v>
+        <v>147</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -10798,7 +10798,7 @@
         <v>11</v>
       </c>
       <c r="B431">
-        <v>15</v>
+        <v>252</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -10806,7 +10806,7 @@
         <v>12</v>
       </c>
       <c r="B432">
-        <v>237</v>
+        <v>195</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -10814,7 +10814,7 @@
         <v>13</v>
       </c>
       <c r="B433">
-        <v>85</v>
+        <v>246</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -10822,7 +10822,7 @@
         <v>14</v>
       </c>
       <c r="B434">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -10830,7 +10830,7 @@
         <v>15</v>
       </c>
       <c r="B435">
-        <v>153</v>
+        <v>31</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -10838,7 +10838,7 @@
         <v>16</v>
       </c>
       <c r="B436">
-        <v>31</v>
+        <v>142</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -10846,7 +10846,7 @@
         <v>17</v>
       </c>
       <c r="B437">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/chart.xlsx
+++ b/chart.xlsx
@@ -23,52 +23,52 @@
     <t>Value</t>
   </si>
   <si>
-    <t>AALI</t>
+    <t>Apr 2023</t>
   </si>
   <si>
-    <t>ADRO</t>
+    <t>May 2023</t>
   </si>
   <si>
-    <t>BBCA</t>
+    <t>Jun 2023</t>
   </si>
   <si>
-    <t>BBRI</t>
+    <t>Jul 2023</t>
   </si>
   <si>
-    <t>BBNI</t>
+    <t>Aug 2023</t>
   </si>
   <si>
-    <t>BMRI</t>
+    <t>Sep 2023</t>
   </si>
   <si>
-    <t>INCO</t>
+    <t>Oct 2023</t>
   </si>
   <si>
-    <t>INKP</t>
+    <t>Nov 2023</t>
   </si>
   <si>
-    <t>INTP</t>
+    <t>Dec 2023</t>
   </si>
   <si>
-    <t>ISAT</t>
+    <t>Jan 2024</t>
   </si>
   <si>
-    <t>KLBF</t>
+    <t>Feb 2024</t>
   </si>
   <si>
-    <t>LSIP</t>
+    <t>Mar 2024</t>
   </si>
   <si>
-    <t>LPKR</t>
+    <t>Apr 2024</t>
   </si>
   <si>
-    <t>MCAS</t>
+    <t>May 2024</t>
   </si>
   <si>
-    <t>SMGR</t>
+    <t>Jun 2024</t>
   </si>
   <si>
-    <t>TLKM</t>
+    <t>Jul 2024</t>
   </si>
 </sst>
 </file>
@@ -142,7 +142,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 1</a:t>
+              <a:t>Perkembangan Saham GOTO</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -181,52 +181,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -448,7 +448,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 10</a:t>
+              <a:t>Perkembangan Saham KLBF</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -487,52 +487,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -754,7 +754,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 11</a:t>
+              <a:t>Perkembangan Saham ANTM</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -793,52 +793,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1060,7 +1060,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 12</a:t>
+              <a:t>Perkembangan Saham INDF</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1099,52 +1099,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1366,7 +1366,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 13</a:t>
+              <a:t>Perkembangan Saham ADRO</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1405,52 +1405,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1672,7 +1672,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 14</a:t>
+              <a:t>Perkembangan Saham PTBA</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1711,52 +1711,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1978,7 +1978,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 15</a:t>
+              <a:t>Perkembangan Saham SMGR</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2017,52 +2017,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2284,7 +2284,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 16</a:t>
+              <a:t>Perkembangan Saham HMSP</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2323,52 +2323,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2590,7 +2590,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 17</a:t>
+              <a:t>Perkembangan Saham GOTO</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2629,52 +2629,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2896,7 +2896,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 18</a:t>
+              <a:t>Perkembangan Saham FREN</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2935,52 +2935,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3202,7 +3202,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 19</a:t>
+              <a:t>Perkembangan Saham BBCA</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3241,52 +3241,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3508,7 +3508,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 2</a:t>
+              <a:t>Perkembangan Saham FREN</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3547,52 +3547,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3814,7 +3814,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 20</a:t>
+              <a:t>Perkembangan Saham TLKM</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3853,52 +3853,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4120,7 +4120,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 21</a:t>
+              <a:t>Perkembangan Saham BBRI</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4159,52 +4159,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4426,7 +4426,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 22</a:t>
+              <a:t>Perkembangan Saham BMRI</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4465,52 +4465,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4732,7 +4732,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 3</a:t>
+              <a:t>Perkembangan Saham BBCA</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4771,52 +4771,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5038,7 +5038,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 4</a:t>
+              <a:t>Perkembangan Saham TLKM</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5077,52 +5077,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5344,7 +5344,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 5</a:t>
+              <a:t>Perkembangan Saham BBRI</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5383,52 +5383,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5650,7 +5650,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 6</a:t>
+              <a:t>Perkembangan Saham BMRI</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5689,52 +5689,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5956,7 +5956,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 7</a:t>
+              <a:t>Perkembangan Saham ASII</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5995,52 +5995,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6262,7 +6262,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 8</a:t>
+              <a:t>Perkembangan Saham UNVR</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6301,52 +6301,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6568,7 +6568,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Perkembangan Saham bulan 9</a:t>
+              <a:t>Perkembangan Saham ICBP</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6607,52 +6607,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>AALI</c:v>
+                  <c:v>Apr 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ADRO</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BBCA</c:v>
+                  <c:v>Jun 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BBRI</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BBNI</c:v>
+                  <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BMRI</c:v>
+                  <c:v>Sep 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>INCO</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>INKP</c:v>
+                  <c:v>Nov 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>INTP</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>ISAT</c:v>
+                  <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>KLBF</c:v>
+                  <c:v>Feb 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>LSIP</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>LPKR</c:v>
+                  <c:v>Apr 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MCAS</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SMGR</c:v>
+                  <c:v>Jun 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TLKM</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>

--- a/chart.xlsx
+++ b/chart.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
-    <t>Type</t>
+    <t>Month</t>
   </si>
   <si>
     <t>Value</t>

--- a/chart.xlsx
+++ b/chart.xlsx
@@ -237,52 +237,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>141</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>251</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>139</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>189</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>204</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>112</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>103</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>105</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>102</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -543,52 +543,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>192</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>139</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>208</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>92</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>225</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>146</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>121</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>223</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>189</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>240</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>251</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>139</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>103</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>105</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>192</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <v>227</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>70</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>6</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>8</v>
       </c>
       <c r="B28">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>10</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="B31">
-        <v>208</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>12</v>
       </c>
       <c r="B32">
-        <v>92</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>225</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>14</v>
       </c>
       <c r="B34">
-        <v>146</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>15</v>
       </c>
       <c r="B35">
-        <v>113</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>16</v>
       </c>
       <c r="B36">
-        <v>121</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>17</v>
       </c>
       <c r="B37">
-        <v>223</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/chart.xlsx
+++ b/chart.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Month</t>
   </si>
@@ -23,49 +23,28 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Apr 2023</t>
-  </si>
-  <si>
     <t>May 2023</t>
   </si>
   <si>
-    <t>Jun 2023</t>
-  </si>
-  <si>
     <t>Jul 2023</t>
   </si>
   <si>
     <t>Aug 2023</t>
   </si>
   <si>
-    <t>Sep 2023</t>
-  </si>
-  <si>
     <t>Oct 2023</t>
   </si>
   <si>
-    <t>Nov 2023</t>
-  </si>
-  <si>
     <t>Dec 2023</t>
   </si>
   <si>
     <t>Jan 2024</t>
   </si>
   <si>
-    <t>Feb 2024</t>
-  </si>
-  <si>
     <t>Mar 2024</t>
   </si>
   <si>
-    <t>Apr 2024</t>
-  </si>
-  <si>
     <t>May 2024</t>
-  </si>
-  <si>
-    <t>Jun 2024</t>
   </si>
   <si>
     <t>Jul 2024</t>
@@ -181,13 +160,13 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>Apr 2023</c:v>
+                  <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>May 2023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Jun 2023</c:v>
+                  <c:v>Jul 2023</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Jul 2023</c:v>
@@ -196,13 +175,13 @@
                   <c:v>Aug 2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Sep 2023</c:v>
+                  <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Oct 2023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Nov 2023</c:v>
+                  <c:v>Dec 2023</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Dec 2023</c:v>
@@ -211,19 +190,19 @@
                   <c:v>Jan 2024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Feb 2024</c:v>
+                  <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Mar 2024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Apr 2024</c:v>
+                  <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>May 2024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Jun 2024</c:v>
+                  <c:v>Jul 2024</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Jul 2024</c:v>
@@ -237,358 +216,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>164</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>183</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>227</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>187</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>179</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="6"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="7"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="8"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="9"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="10"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="11"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="12"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="13"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="14"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="15"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="16"/>
-        </c:ser>
-        <c:dLbls/>
-        <c:smooth val="0"/>
-        <c:axId val="110438656"/>
-        <c:axId val="110444544"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="110438656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:crossAx val="110444544"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="110444544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:crossAx val="110438656"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:ln/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="0"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln/>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Perkembangan Saham FREN</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout/>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Value</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Worksheet!$A$22:$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Apr 2023</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>May 2023</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Jun 2023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Jul 2023</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Aug 2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sep 2023</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Oct 2023</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Nov 2023</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Dec 2023</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Jan 2024</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Feb 2024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Mar 2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Apr 2024</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>May 2024</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Jun 2024</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Jul 2024</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$B$22:$B$37</c:f>
-              <c:numCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>114</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -759,38 +432,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr name="Chart 2" id="2050"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1089,7 +730,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,263 +751,127 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>91</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>164</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>183</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>227</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>149</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>187</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37">
-        <v>114</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/chart.xlsx
+++ b/chart.xlsx
@@ -224,52 +224,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>151</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>179</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>215</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>131</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>168</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>199</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>172</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>229</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>127</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>190</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>107</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -766,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>151</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -774,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>179</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -782,7 +782,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -790,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>215</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -806,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>120</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -814,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>168</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -822,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>199</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -830,7 +830,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -838,7 +838,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>172</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -846,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -854,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>229</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -862,7 +862,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="1">
-        <v>127</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -870,7 +870,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="1">
-        <v>190</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -878,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>107</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
